--- a/medicine/Enfance/Prix_commémoratif_Astrid-Lindgren/Prix_commémoratif_Astrid-Lindgren.xlsx
+++ b/medicine/Enfance/Prix_commémoratif_Astrid-Lindgren/Prix_commémoratif_Astrid-Lindgren.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_comm%C3%A9moratif_Astrid-Lindgren</t>
+          <t>Prix_commémoratif_Astrid-Lindgren</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le prix commémoratif Astrid-Lindgren (« Astrid Lindgren memorial award » ALMA) est un prix littéraire international récompensant des auteurs de littérature d'enfance et de jeunesse, des illustrateurs, ou des institutions de littérature jeunesse[1].
+Le prix commémoratif Astrid-Lindgren (« Astrid Lindgren memorial award » ALMA) est un prix littéraire international récompensant des auteurs de littérature d'enfance et de jeunesse, des illustrateurs, ou des institutions de littérature jeunesse.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_comm%C3%A9moratif_Astrid-Lindgren</t>
+          <t>Prix_commémoratif_Astrid-Lindgren</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Historique et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fut créé par le gouvernement suédois en 2002, année de la disparition de la célèbre auteure Astrid Lindgren, créatrice de Fifi Brindacier. Doté d'une récompense de 5 millions de couronnes suédoises, soit l'équivalent de plus de 550 000 euros, il s'agit du plus important prix réservé à la littérature pour enfant et pour la jeunesse du monde. Il s'agit également du second prix littéraire mondial en termes de récompense financière, après le prix Nobel de littérature[2],[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fut créé par le gouvernement suédois en 2002, année de la disparition de la célèbre auteure Astrid Lindgren, créatrice de Fifi Brindacier. Doté d'une récompense de 5 millions de couronnes suédoises, soit l'équivalent de plus de 550 000 euros, il s'agit du plus important prix réservé à la littérature pour enfant et pour la jeunesse du monde. Il s'agit également du second prix littéraire mondial en termes de récompense financière, après le prix Nobel de littérature.
 Il ne doit pas être confondu avec le prix Astrid-Lindgren.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prix_comm%C3%A9moratif_Astrid-Lindgren</t>
+          <t>Prix_commémoratif_Astrid-Lindgren</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Lauréats[5]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Il existe une catégorie consacrée à ce sujet : Lauréat du prix commémoratif Astrid-Lindgren.
